--- a/samples/benchmark/results/results-demo.xlsx
+++ b/samples/benchmark/results/results-demo.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="992" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="BenchmarkA" sheetId="1" state="visible" r:id="rId2"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="22">
   <si>
     <t>No</t>
   </si>
@@ -49,6 +49,51 @@
   </si>
   <si>
     <t>repeat</t>
+  </si>
+  <si>
+    <t>Disabled refreshing in RelationChangeBehavior</t>
+  </si>
+  <si>
+    <t>Repeat 7</t>
+  </si>
+  <si>
+    <r>
+      <t>Disabled change tracking in </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="0"/>
+      </rPr>
+      <t>TrackChangesBehavior</t>
+    </r>
+  </si>
+  <si>
+    <t>Repeat 10</t>
+  </si>
+  <si>
+    <t>Bypassing DisplayNameValidator</t>
+  </si>
+  <si>
+    <t>Repeat 12</t>
+  </si>
+  <si>
+    <t>forcing apiinventorycontroller to run async</t>
+  </si>
+  <si>
+    <t>Repeat 14</t>
+  </si>
+  <si>
+    <t>7 and 14</t>
+  </si>
+  <si>
+    <t>Repeat 17</t>
+  </si>
+  <si>
+    <t>PHP 5.6</t>
   </si>
 </sst>
 </file>
@@ -59,7 +104,7 @@
     <numFmt numFmtId="164" formatCode="GENERAL"/>
     <numFmt numFmtId="165" formatCode="0%"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -90,6 +135,13 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <b val="true"/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Menlo"/>
+      <family val="0"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -135,7 +187,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -178,6 +230,18 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -197,10 +261,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C11" activeCellId="0" sqref="C11"/>
+      <selection pane="topLeft" activeCell="D23" activeCellId="0" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16"/>
@@ -407,6 +471,426 @@
       </c>
       <c r="H7" s="10" t="s">
         <v>10</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="4" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="C8" s="4" t="n">
+        <v>5</v>
+      </c>
+      <c r="D8" s="4" t="n">
+        <v>31</v>
+      </c>
+      <c r="E8" s="4" t="n">
+        <f aca="false">D8/B8</f>
+        <v>3.1</v>
+      </c>
+      <c r="F8" s="8" t="n">
+        <f aca="false">E8/$E$2</f>
+        <v>0.182352941176471</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="H8" s="11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="4" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="C9" s="4" t="n">
+        <v>5</v>
+      </c>
+      <c r="D9" s="4" t="n">
+        <v>27</v>
+      </c>
+      <c r="E9" s="4" t="n">
+        <f aca="false">D9/B9</f>
+        <v>2.7</v>
+      </c>
+      <c r="F9" s="8" t="n">
+        <f aca="false">E9/$E$2</f>
+        <v>0.158823529411765</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="H9" s="12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="4" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="C10" s="4" t="n">
+        <v>5</v>
+      </c>
+      <c r="D10" s="4" t="n">
+        <v>27</v>
+      </c>
+      <c r="E10" s="4" t="n">
+        <f aca="false">D10/B10</f>
+        <v>2.7</v>
+      </c>
+      <c r="F10" s="8" t="n">
+        <f aca="false">E10/$E$2</f>
+        <v>0.158823529411765</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="H10" s="12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="C11" s="4" t="n">
+        <v>5</v>
+      </c>
+      <c r="D11" s="4" t="n">
+        <v>164</v>
+      </c>
+      <c r="E11" s="4" t="n">
+        <f aca="false">D11/B11</f>
+        <v>16.4</v>
+      </c>
+      <c r="F11" s="8" t="n">
+        <f aca="false">E11/$E$2</f>
+        <v>0.964705882352941</v>
+      </c>
+      <c r="G11" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="H11" s="11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="4" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="C12" s="4" t="n">
+        <v>5</v>
+      </c>
+      <c r="D12" s="4" t="n">
+        <v>168</v>
+      </c>
+      <c r="E12" s="4" t="n">
+        <f aca="false">D12/B12</f>
+        <v>16.8</v>
+      </c>
+      <c r="F12" s="8" t="n">
+        <f aca="false">E12/$E$2</f>
+        <v>0.988235294117647</v>
+      </c>
+      <c r="G12" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="H12" s="12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="C13" s="4" t="n">
+        <v>5</v>
+      </c>
+      <c r="D13" s="1" t="n">
+        <v>168</v>
+      </c>
+      <c r="E13" s="4" t="n">
+        <f aca="false">D13/B13</f>
+        <v>16.8</v>
+      </c>
+      <c r="F13" s="8" t="n">
+        <f aca="false">E13/$E$2</f>
+        <v>0.988235294117647</v>
+      </c>
+      <c r="G13" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="H13" s="13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="C14" s="4" t="n">
+        <v>5</v>
+      </c>
+      <c r="D14" s="1" t="n">
+        <v>168</v>
+      </c>
+      <c r="E14" s="4" t="n">
+        <f aca="false">D14/B14</f>
+        <v>16.8</v>
+      </c>
+      <c r="F14" s="8" t="n">
+        <f aca="false">E14/$E$2</f>
+        <v>0.988235294117647</v>
+      </c>
+      <c r="G14" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="C15" s="4" t="n">
+        <v>5</v>
+      </c>
+      <c r="D15" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="E15" s="4" t="n">
+        <f aca="false">D15/B15</f>
+        <v>6.4</v>
+      </c>
+      <c r="F15" s="8" t="n">
+        <f aca="false">E15/$E$2</f>
+        <v>0.376470588235294</v>
+      </c>
+      <c r="G15" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="H15" s="13" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="C16" s="4" t="n">
+        <v>5</v>
+      </c>
+      <c r="D16" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="E16" s="4" t="n">
+        <f aca="false">D16/B16</f>
+        <v>6.3</v>
+      </c>
+      <c r="F16" s="8" t="n">
+        <f aca="false">E16/$E$2</f>
+        <v>0.370588235294118</v>
+      </c>
+      <c r="G16" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="C17" s="4" t="n">
+        <v>5</v>
+      </c>
+      <c r="D17" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="E17" s="4" t="n">
+        <f aca="false">D17/B17</f>
+        <v>7.3</v>
+      </c>
+      <c r="F17" s="8" t="n">
+        <f aca="false">E17/$E$2</f>
+        <v>0.429411764705882</v>
+      </c>
+      <c r="G17" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="C18" s="4" t="n">
+        <v>5</v>
+      </c>
+      <c r="D18" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="E18" s="4" t="n">
+        <f aca="false">D18/B18</f>
+        <v>2.8</v>
+      </c>
+      <c r="F18" s="8" t="n">
+        <f aca="false">E18/$E$2</f>
+        <v>0.164705882352941</v>
+      </c>
+      <c r="G18" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="H18" s="13" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="C19" s="4" t="n">
+        <v>5</v>
+      </c>
+      <c r="D19" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="E19" s="4" t="n">
+        <f aca="false">D19/B19</f>
+        <v>2.7</v>
+      </c>
+      <c r="F19" s="8" t="n">
+        <f aca="false">E19/$E$2</f>
+        <v>0.158823529411765</v>
+      </c>
+      <c r="G19" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="C20" s="4" t="n">
+        <v>5</v>
+      </c>
+      <c r="D20" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="E20" s="4" t="n">
+        <f aca="false">D20/B20</f>
+        <v>2.9</v>
+      </c>
+      <c r="F20" s="8" t="n">
+        <f aca="false">E20/$E$2</f>
+        <v>0.170588235294118</v>
+      </c>
+      <c r="G20" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="C21" s="4" t="n">
+        <v>5</v>
+      </c>
+      <c r="D21" s="1" t="n">
+        <v>171</v>
+      </c>
+      <c r="E21" s="4" t="n">
+        <f aca="false">D21/B21</f>
+        <v>17.1</v>
+      </c>
+      <c r="F21" s="8" t="n">
+        <f aca="false">E21/$E$2</f>
+        <v>1.00588235294118</v>
+      </c>
+      <c r="G21" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="C22" s="4" t="n">
+        <v>5</v>
+      </c>
+      <c r="D22" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="E22" s="4" t="n">
+        <f aca="false">D22/B22</f>
+        <v>16.3</v>
+      </c>
+      <c r="F22" s="8" t="n">
+        <f aca="false">E22/$E$2</f>
+        <v>0.958823529411765</v>
+      </c>
+      <c r="G22" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/samples/benchmark/results/results-demo.xlsx
+++ b/samples/benchmark/results/results-demo.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="32">
   <si>
     <t>No</t>
   </si>
@@ -67,6 +67,7 @@
         <color rgb="FF000000"/>
         <rFont val="Menlo"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t>TrackChangesBehavior</t>
     </r>
@@ -94,6 +95,36 @@
   </si>
   <si>
     <t>PHP 5.6</t>
+  </si>
+  <si>
+    <t>more precise measurement (without mvn compile)</t>
+  </si>
+  <si>
+    <t>recommended opcache settings</t>
+  </si>
+  <si>
+    <t>rec opcache + composer optimized autoload</t>
+  </si>
+  <si>
+    <t>27 and async enforced</t>
+  </si>
+  <si>
+    <t>27 Disabled refreshing in RelationChangeBehavior</t>
+  </si>
+  <si>
+    <t>Search→autoRefresh disabled, async enforced</t>
+  </si>
+  <si>
+    <t>Search→autoRefresh disabled, async enforced,Disabled refreshing in RelationChangeBehavior</t>
+  </si>
+  <si>
+    <t>24+27 and35</t>
+  </si>
+  <si>
+    <t>38 and opcache file override</t>
+  </si>
+  <si>
+    <t>no search index update caused be relation change behaviour</t>
   </si>
 </sst>
 </file>
@@ -141,14 +172,27 @@
       <color rgb="FF000000"/>
       <name val="Menlo"/>
       <family val="0"/>
+      <charset val="1"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDDDDDD"/>
+        <bgColor rgb="FFC0C0C0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF99FF99"/>
+        <bgColor rgb="FFCCFFFF"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -187,7 +231,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="25">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -220,6 +264,46 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -229,19 +313,23 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="0" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -253,6 +341,66 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
   </cellStyles>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFDDDDDD"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF99FF99"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -261,10 +409,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H22"/>
+  <dimension ref="A1:O42"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D23" activeCellId="0" sqref="D23"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A19" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D43" activeCellId="0" sqref="D43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16"/>
@@ -306,591 +454,1192 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="4" t="n">
+      <c r="A2" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="n">
-        <v>10</v>
-      </c>
-      <c r="C2" s="4" t="n">
-        <v>5</v>
-      </c>
-      <c r="D2" s="4" t="n">
+      <c r="B2" s="8" t="n">
+        <v>10</v>
+      </c>
+      <c r="C2" s="8" t="n">
+        <v>5</v>
+      </c>
+      <c r="D2" s="8" t="n">
         <v>170</v>
       </c>
-      <c r="E2" s="4" t="n">
+      <c r="E2" s="8" t="n">
         <f aca="false">D2/B2</f>
         <v>17</v>
       </c>
-      <c r="F2" s="8" t="n">
+      <c r="F2" s="9" t="n">
         <f aca="false">E2/$E$2</f>
         <v>1</v>
       </c>
-      <c r="G2" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="H2" s="10" t="s">
+      <c r="G2" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" s="11" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="4" t="n">
+      <c r="A3" s="8" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="4" t="n">
-        <v>10</v>
-      </c>
-      <c r="C3" s="4" t="n">
-        <v>5</v>
-      </c>
-      <c r="D3" s="4" t="n">
+      <c r="B3" s="8" t="n">
+        <v>10</v>
+      </c>
+      <c r="C3" s="8" t="n">
+        <v>5</v>
+      </c>
+      <c r="D3" s="8" t="n">
         <v>176</v>
       </c>
-      <c r="E3" s="4" t="n">
+      <c r="E3" s="8" t="n">
         <f aca="false">D3/B3</f>
         <v>17.6</v>
       </c>
-      <c r="F3" s="8" t="n">
+      <c r="F3" s="9" t="n">
         <f aca="false">E3/$E$2</f>
         <v>1.03529411764706</v>
       </c>
-      <c r="G3" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="H3" s="10" t="s">
+      <c r="G3" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="H3" s="11" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="4" t="n">
+      <c r="A4" s="8" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="4" t="n">
-        <v>10</v>
-      </c>
-      <c r="C4" s="4" t="n">
-        <v>5</v>
-      </c>
-      <c r="D4" s="4" t="n">
+      <c r="B4" s="8" t="n">
+        <v>10</v>
+      </c>
+      <c r="C4" s="8" t="n">
+        <v>5</v>
+      </c>
+      <c r="D4" s="8" t="n">
         <v>165</v>
       </c>
-      <c r="E4" s="4" t="n">
+      <c r="E4" s="8" t="n">
         <f aca="false">D4/B4</f>
         <v>16.5</v>
       </c>
-      <c r="F4" s="8" t="n">
+      <c r="F4" s="9" t="n">
         <f aca="false">E4/$E$2</f>
         <v>0.970588235294118</v>
       </c>
-      <c r="G4" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="H4" s="10" t="s">
+      <c r="G4" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="H4" s="11" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="4" t="n">
+      <c r="A5" s="8" t="n">
         <v>4</v>
       </c>
-      <c r="B5" s="4" t="n">
-        <v>10</v>
-      </c>
-      <c r="C5" s="4" t="n">
-        <v>5</v>
-      </c>
-      <c r="D5" s="4" t="n">
+      <c r="B5" s="8" t="n">
+        <v>10</v>
+      </c>
+      <c r="C5" s="8" t="n">
+        <v>5</v>
+      </c>
+      <c r="D5" s="8" t="n">
         <v>163</v>
       </c>
-      <c r="E5" s="4" t="n">
+      <c r="E5" s="8" t="n">
         <f aca="false">D5/B5</f>
         <v>16.3</v>
       </c>
-      <c r="F5" s="8" t="n">
+      <c r="F5" s="9" t="n">
         <f aca="false">E5/$E$2</f>
         <v>0.958823529411765</v>
       </c>
-      <c r="G5" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="H5" s="10" t="s">
+      <c r="G5" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="H5" s="11" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="4" t="n">
-        <v>5</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>10</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>5</v>
-      </c>
-      <c r="D6" s="4" t="n">
+      <c r="A6" s="8" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" s="8" t="n">
+        <v>10</v>
+      </c>
+      <c r="C6" s="8" t="n">
+        <v>5</v>
+      </c>
+      <c r="D6" s="8" t="n">
         <v>165</v>
       </c>
-      <c r="E6" s="4" t="n">
+      <c r="E6" s="8" t="n">
         <f aca="false">D6/B6</f>
         <v>16.5</v>
       </c>
-      <c r="F6" s="8" t="n">
+      <c r="F6" s="9" t="n">
         <f aca="false">E6/$E$2</f>
         <v>0.970588235294118</v>
       </c>
-      <c r="G6" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="H6" s="10" t="s">
+      <c r="G6" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="H6" s="11" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="4" t="n">
+      <c r="A7" s="8" t="n">
         <v>6</v>
       </c>
-      <c r="B7" s="4" t="n">
-        <v>10</v>
-      </c>
-      <c r="C7" s="4" t="n">
-        <v>5</v>
-      </c>
-      <c r="D7" s="4" t="n">
+      <c r="B7" s="8" t="n">
+        <v>10</v>
+      </c>
+      <c r="C7" s="8" t="n">
+        <v>5</v>
+      </c>
+      <c r="D7" s="8" t="n">
         <v>163</v>
       </c>
-      <c r="E7" s="4" t="n">
+      <c r="E7" s="8" t="n">
         <f aca="false">D7/B7</f>
         <v>16.3</v>
       </c>
-      <c r="F7" s="8" t="n">
+      <c r="F7" s="9" t="n">
         <f aca="false">E7/$E$2</f>
         <v>0.958823529411765</v>
       </c>
-      <c r="G7" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="H7" s="10" t="s">
+      <c r="G7" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="H7" s="11" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="4" t="n">
+      <c r="A8" s="8" t="n">
         <v>7</v>
       </c>
-      <c r="B8" s="4" t="n">
-        <v>10</v>
-      </c>
-      <c r="C8" s="4" t="n">
-        <v>5</v>
-      </c>
-      <c r="D8" s="4" t="n">
+      <c r="B8" s="8" t="n">
+        <v>10</v>
+      </c>
+      <c r="C8" s="8" t="n">
+        <v>5</v>
+      </c>
+      <c r="D8" s="8" t="n">
         <v>31</v>
       </c>
-      <c r="E8" s="4" t="n">
+      <c r="E8" s="8" t="n">
         <f aca="false">D8/B8</f>
         <v>3.1</v>
       </c>
-      <c r="F8" s="8" t="n">
+      <c r="F8" s="9" t="n">
         <f aca="false">E8/$E$2</f>
         <v>0.182352941176471</v>
       </c>
-      <c r="G8" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="H8" s="11" t="s">
+      <c r="G8" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="H8" s="12" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="4" t="n">
-        <v>8</v>
-      </c>
-      <c r="B9" s="4" t="n">
-        <v>10</v>
-      </c>
-      <c r="C9" s="4" t="n">
-        <v>5</v>
-      </c>
-      <c r="D9" s="4" t="n">
+      <c r="A9" s="8" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" s="8" t="n">
+        <v>10</v>
+      </c>
+      <c r="C9" s="8" t="n">
+        <v>5</v>
+      </c>
+      <c r="D9" s="8" t="n">
         <v>27</v>
       </c>
-      <c r="E9" s="4" t="n">
+      <c r="E9" s="8" t="n">
         <f aca="false">D9/B9</f>
         <v>2.7</v>
       </c>
-      <c r="F9" s="8" t="n">
+      <c r="F9" s="9" t="n">
         <f aca="false">E9/$E$2</f>
         <v>0.158823529411765</v>
       </c>
-      <c r="G9" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="H9" s="12" t="s">
+      <c r="G9" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="H9" s="13" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="4" t="n">
+      <c r="A10" s="8" t="n">
         <v>9</v>
       </c>
-      <c r="B10" s="4" t="n">
-        <v>10</v>
-      </c>
-      <c r="C10" s="4" t="n">
-        <v>5</v>
-      </c>
-      <c r="D10" s="4" t="n">
+      <c r="B10" s="8" t="n">
+        <v>10</v>
+      </c>
+      <c r="C10" s="8" t="n">
+        <v>5</v>
+      </c>
+      <c r="D10" s="8" t="n">
         <v>27</v>
       </c>
-      <c r="E10" s="4" t="n">
+      <c r="E10" s="8" t="n">
         <f aca="false">D10/B10</f>
         <v>2.7</v>
       </c>
-      <c r="F10" s="8" t="n">
+      <c r="F10" s="9" t="n">
         <f aca="false">E10/$E$2</f>
         <v>0.158823529411765</v>
       </c>
-      <c r="G10" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="H10" s="12" t="s">
+      <c r="G10" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="H10" s="13" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="4" t="n">
-        <v>10</v>
-      </c>
-      <c r="B11" s="4" t="n">
-        <v>10</v>
-      </c>
-      <c r="C11" s="4" t="n">
-        <v>5</v>
-      </c>
-      <c r="D11" s="4" t="n">
+      <c r="A11" s="8" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" s="8" t="n">
+        <v>10</v>
+      </c>
+      <c r="C11" s="8" t="n">
+        <v>5</v>
+      </c>
+      <c r="D11" s="8" t="n">
         <v>164</v>
       </c>
-      <c r="E11" s="4" t="n">
+      <c r="E11" s="8" t="n">
         <f aca="false">D11/B11</f>
         <v>16.4</v>
       </c>
-      <c r="F11" s="8" t="n">
+      <c r="F11" s="9" t="n">
         <f aca="false">E11/$E$2</f>
         <v>0.964705882352941</v>
       </c>
-      <c r="G11" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="H11" s="11" t="s">
+      <c r="G11" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="H11" s="12" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="4" t="n">
+      <c r="A12" s="8" t="n">
         <v>11</v>
       </c>
-      <c r="B12" s="4" t="n">
-        <v>10</v>
-      </c>
-      <c r="C12" s="4" t="n">
-        <v>5</v>
-      </c>
-      <c r="D12" s="4" t="n">
+      <c r="B12" s="8" t="n">
+        <v>10</v>
+      </c>
+      <c r="C12" s="8" t="n">
+        <v>5</v>
+      </c>
+      <c r="D12" s="8" t="n">
         <v>168</v>
       </c>
-      <c r="E12" s="4" t="n">
+      <c r="E12" s="8" t="n">
         <f aca="false">D12/B12</f>
         <v>16.8</v>
       </c>
-      <c r="F12" s="8" t="n">
+      <c r="F12" s="9" t="n">
         <f aca="false">E12/$E$2</f>
         <v>0.988235294117647</v>
       </c>
-      <c r="G12" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="H12" s="12" t="s">
+      <c r="G12" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="H12" s="13" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1" t="n">
+      <c r="A13" s="14" t="n">
         <v>12</v>
       </c>
-      <c r="B13" s="4" t="n">
-        <v>10</v>
-      </c>
-      <c r="C13" s="4" t="n">
-        <v>5</v>
-      </c>
-      <c r="D13" s="1" t="n">
+      <c r="B13" s="8" t="n">
+        <v>10</v>
+      </c>
+      <c r="C13" s="8" t="n">
+        <v>5</v>
+      </c>
+      <c r="D13" s="14" t="n">
         <v>168</v>
       </c>
-      <c r="E13" s="4" t="n">
+      <c r="E13" s="8" t="n">
         <f aca="false">D13/B13</f>
         <v>16.8</v>
       </c>
-      <c r="F13" s="8" t="n">
+      <c r="F13" s="9" t="n">
         <f aca="false">E13/$E$2</f>
         <v>0.988235294117647</v>
       </c>
-      <c r="G13" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="H13" s="13" t="s">
+      <c r="G13" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="H13" s="15" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="1" t="n">
+      <c r="A14" s="14" t="n">
         <v>13</v>
       </c>
-      <c r="B14" s="4" t="n">
-        <v>10</v>
-      </c>
-      <c r="C14" s="4" t="n">
-        <v>5</v>
-      </c>
-      <c r="D14" s="1" t="n">
+      <c r="B14" s="8" t="n">
+        <v>10</v>
+      </c>
+      <c r="C14" s="8" t="n">
+        <v>5</v>
+      </c>
+      <c r="D14" s="14" t="n">
         <v>168</v>
       </c>
-      <c r="E14" s="4" t="n">
+      <c r="E14" s="8" t="n">
         <f aca="false">D14/B14</f>
         <v>16.8</v>
       </c>
-      <c r="F14" s="8" t="n">
+      <c r="F14" s="9" t="n">
         <f aca="false">E14/$E$2</f>
         <v>0.988235294117647</v>
       </c>
-      <c r="G14" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="H14" s="3" t="s">
+      <c r="G14" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="H14" s="16" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="1" t="n">
+      <c r="A15" s="14" t="n">
         <v>14</v>
       </c>
-      <c r="B15" s="4" t="n">
-        <v>10</v>
-      </c>
-      <c r="C15" s="4" t="n">
-        <v>5</v>
-      </c>
-      <c r="D15" s="1" t="n">
+      <c r="B15" s="8" t="n">
+        <v>10</v>
+      </c>
+      <c r="C15" s="8" t="n">
+        <v>5</v>
+      </c>
+      <c r="D15" s="14" t="n">
         <v>64</v>
       </c>
-      <c r="E15" s="4" t="n">
+      <c r="E15" s="8" t="n">
         <f aca="false">D15/B15</f>
         <v>6.4</v>
       </c>
-      <c r="F15" s="8" t="n">
+      <c r="F15" s="9" t="n">
         <f aca="false">E15/$E$2</f>
         <v>0.376470588235294</v>
       </c>
-      <c r="G15" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="H15" s="13" t="s">
+      <c r="G15" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="H15" s="15" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="1" t="n">
+      <c r="A16" s="14" t="n">
         <v>15</v>
       </c>
-      <c r="B16" s="4" t="n">
-        <v>10</v>
-      </c>
-      <c r="C16" s="4" t="n">
-        <v>5</v>
-      </c>
-      <c r="D16" s="1" t="n">
+      <c r="B16" s="8" t="n">
+        <v>10</v>
+      </c>
+      <c r="C16" s="8" t="n">
+        <v>5</v>
+      </c>
+      <c r="D16" s="14" t="n">
         <v>63</v>
       </c>
-      <c r="E16" s="4" t="n">
+      <c r="E16" s="8" t="n">
         <f aca="false">D16/B16</f>
         <v>6.3</v>
       </c>
-      <c r="F16" s="8" t="n">
+      <c r="F16" s="9" t="n">
         <f aca="false">E16/$E$2</f>
         <v>0.370588235294118</v>
       </c>
-      <c r="G16" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="H16" s="3" t="s">
+      <c r="G16" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="H16" s="16" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="1" t="n">
+      <c r="A17" s="14" t="n">
         <v>16</v>
       </c>
-      <c r="B17" s="4" t="n">
-        <v>10</v>
-      </c>
-      <c r="C17" s="4" t="n">
-        <v>5</v>
-      </c>
-      <c r="D17" s="1" t="n">
+      <c r="B17" s="8" t="n">
+        <v>10</v>
+      </c>
+      <c r="C17" s="8" t="n">
+        <v>5</v>
+      </c>
+      <c r="D17" s="14" t="n">
         <v>73</v>
       </c>
-      <c r="E17" s="4" t="n">
+      <c r="E17" s="8" t="n">
         <f aca="false">D17/B17</f>
         <v>7.3</v>
       </c>
-      <c r="F17" s="8" t="n">
+      <c r="F17" s="9" t="n">
         <f aca="false">E17/$E$2</f>
         <v>0.429411764705882</v>
       </c>
-      <c r="G17" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="H17" s="3" t="s">
+      <c r="G17" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="H17" s="16" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="1" t="n">
+      <c r="A18" s="14" t="n">
         <v>17</v>
       </c>
-      <c r="B18" s="4" t="n">
-        <v>10</v>
-      </c>
-      <c r="C18" s="4" t="n">
-        <v>5</v>
-      </c>
-      <c r="D18" s="1" t="n">
+      <c r="B18" s="8" t="n">
+        <v>10</v>
+      </c>
+      <c r="C18" s="8" t="n">
+        <v>5</v>
+      </c>
+      <c r="D18" s="14" t="n">
         <v>28</v>
       </c>
-      <c r="E18" s="4" t="n">
+      <c r="E18" s="8" t="n">
         <f aca="false">D18/B18</f>
         <v>2.8</v>
       </c>
-      <c r="F18" s="8" t="n">
+      <c r="F18" s="9" t="n">
         <f aca="false">E18/$E$2</f>
         <v>0.164705882352941</v>
       </c>
-      <c r="G18" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="H18" s="13" t="s">
+      <c r="G18" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="H18" s="15" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="1" t="n">
+      <c r="A19" s="14" t="n">
         <v>18</v>
       </c>
-      <c r="B19" s="4" t="n">
-        <v>10</v>
-      </c>
-      <c r="C19" s="4" t="n">
-        <v>5</v>
-      </c>
-      <c r="D19" s="1" t="n">
+      <c r="B19" s="8" t="n">
+        <v>10</v>
+      </c>
+      <c r="C19" s="8" t="n">
+        <v>5</v>
+      </c>
+      <c r="D19" s="14" t="n">
         <v>27</v>
       </c>
-      <c r="E19" s="4" t="n">
+      <c r="E19" s="8" t="n">
         <f aca="false">D19/B19</f>
         <v>2.7</v>
       </c>
-      <c r="F19" s="8" t="n">
+      <c r="F19" s="9" t="n">
         <f aca="false">E19/$E$2</f>
         <v>0.158823529411765</v>
       </c>
-      <c r="G19" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="H19" s="3" t="s">
+      <c r="G19" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="H19" s="16" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="1" t="n">
+      <c r="A20" s="14" t="n">
         <v>19</v>
       </c>
-      <c r="B20" s="4" t="n">
-        <v>10</v>
-      </c>
-      <c r="C20" s="4" t="n">
-        <v>5</v>
-      </c>
-      <c r="D20" s="1" t="n">
+      <c r="B20" s="8" t="n">
+        <v>10</v>
+      </c>
+      <c r="C20" s="8" t="n">
+        <v>5</v>
+      </c>
+      <c r="D20" s="14" t="n">
         <v>29</v>
       </c>
-      <c r="E20" s="4" t="n">
+      <c r="E20" s="8" t="n">
         <f aca="false">D20/B20</f>
         <v>2.9</v>
       </c>
-      <c r="F20" s="8" t="n">
+      <c r="F20" s="9" t="n">
         <f aca="false">E20/$E$2</f>
         <v>0.170588235294118</v>
       </c>
-      <c r="G20" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="H20" s="3" t="s">
+      <c r="G20" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="H20" s="16" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="1" t="n">
+      <c r="A21" s="14" t="n">
         <v>20</v>
       </c>
-      <c r="B21" s="4" t="n">
-        <v>10</v>
-      </c>
-      <c r="C21" s="4" t="n">
-        <v>5</v>
-      </c>
-      <c r="D21" s="1" t="n">
+      <c r="B21" s="8" t="n">
+        <v>10</v>
+      </c>
+      <c r="C21" s="8" t="n">
+        <v>5</v>
+      </c>
+      <c r="D21" s="14" t="n">
         <v>171</v>
       </c>
-      <c r="E21" s="4" t="n">
+      <c r="E21" s="8" t="n">
         <f aca="false">D21/B21</f>
         <v>17.1</v>
       </c>
-      <c r="F21" s="8" t="n">
+      <c r="F21" s="9" t="n">
         <f aca="false">E21/$E$2</f>
         <v>1.00588235294118</v>
       </c>
-      <c r="G21" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="H21" s="3" t="s">
+      <c r="G21" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="H21" s="16" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="1" t="n">
+      <c r="A22" s="14" t="n">
         <v>21</v>
       </c>
-      <c r="B22" s="4" t="n">
-        <v>10</v>
-      </c>
-      <c r="C22" s="4" t="n">
-        <v>5</v>
-      </c>
-      <c r="D22" s="1" t="n">
+      <c r="B22" s="8" t="n">
+        <v>10</v>
+      </c>
+      <c r="C22" s="8" t="n">
+        <v>5</v>
+      </c>
+      <c r="D22" s="14" t="n">
         <v>163</v>
       </c>
-      <c r="E22" s="4" t="n">
+      <c r="E22" s="8" t="n">
         <f aca="false">D22/B22</f>
         <v>16.3</v>
       </c>
-      <c r="F22" s="8" t="n">
+      <c r="F22" s="9" t="n">
         <f aca="false">E22/$E$2</f>
         <v>0.958823529411765</v>
       </c>
-      <c r="G22" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="H22" s="3" t="s">
+      <c r="G22" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="H22" s="16" t="s">
         <v>21</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="C23" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="D23" s="1" t="n">
+        <v>177</v>
+      </c>
+      <c r="E23" s="17" t="n">
+        <f aca="false">D23/B23</f>
+        <v>17.7</v>
+      </c>
+      <c r="F23" s="18" t="n">
+        <f aca="false">E23/$E$23</f>
+        <v>1</v>
+      </c>
+      <c r="G23" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="H23" s="20" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="1" t="n">
+        <f aca="false">A23+1</f>
+        <v>23</v>
+      </c>
+      <c r="B24" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="C24" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="D24" s="1" t="n">
+        <v>178</v>
+      </c>
+      <c r="E24" s="17" t="n">
+        <f aca="false">D24/B24</f>
+        <v>17.8</v>
+      </c>
+      <c r="F24" s="18" t="n">
+        <f aca="false">E24/$E$23</f>
+        <v>1.00564971751412</v>
+      </c>
+      <c r="G24" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="H24" s="20" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="1" t="n">
+        <f aca="false">A24+1</f>
+        <v>24</v>
+      </c>
+      <c r="B25" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="C25" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="D25" s="1" t="n">
+        <v>174</v>
+      </c>
+      <c r="E25" s="17" t="n">
+        <f aca="false">D25/B25</f>
+        <v>17.4</v>
+      </c>
+      <c r="F25" s="18" t="n">
+        <f aca="false">E25/$E$23</f>
+        <v>0.983050847457627</v>
+      </c>
+      <c r="G25" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="H25" s="20" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="1" t="n">
+        <f aca="false">A25+1</f>
+        <v>25</v>
+      </c>
+      <c r="B26" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="C26" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="D26" s="1" t="n">
+        <v>169</v>
+      </c>
+      <c r="E26" s="17" t="n">
+        <f aca="false">D26/B26</f>
+        <v>16.9</v>
+      </c>
+      <c r="F26" s="18" t="n">
+        <f aca="false">E26/$E$23</f>
+        <v>0.954802259887006</v>
+      </c>
+      <c r="G26" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="H26" s="20" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="1" t="n">
+        <f aca="false">A26+1</f>
+        <v>26</v>
+      </c>
+      <c r="B27" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="C27" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="D27" s="1" t="n">
+        <v>169</v>
+      </c>
+      <c r="E27" s="17" t="n">
+        <f aca="false">D27/B27</f>
+        <v>16.9</v>
+      </c>
+      <c r="F27" s="18" t="n">
+        <f aca="false">E27/$E$23</f>
+        <v>0.954802259887006</v>
+      </c>
+      <c r="G27" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="H27" s="20" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="1" t="n">
+        <f aca="false">A27+1</f>
+        <v>27</v>
+      </c>
+      <c r="B28" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="C28" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="D28" s="1" t="n">
+        <v>174</v>
+      </c>
+      <c r="E28" s="17" t="n">
+        <f aca="false">D28/B28</f>
+        <v>17.4</v>
+      </c>
+      <c r="F28" s="18" t="n">
+        <f aca="false">E28/$E$23</f>
+        <v>0.983050847457627</v>
+      </c>
+      <c r="G28" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="H28" s="20" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="1" t="n">
+        <f aca="false">A28+1</f>
+        <v>28</v>
+      </c>
+      <c r="B29" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="C29" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="D29" s="1" t="n">
+        <v>168</v>
+      </c>
+      <c r="E29" s="17" t="n">
+        <f aca="false">D29/B29</f>
+        <v>16.8</v>
+      </c>
+      <c r="F29" s="18" t="n">
+        <f aca="false">E29/$E$23</f>
+        <v>0.949152542372881</v>
+      </c>
+      <c r="G29" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="H29" s="20" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="1" t="n">
+        <f aca="false">A29+1</f>
+        <v>29</v>
+      </c>
+      <c r="B30" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="C30" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="D30" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="E30" s="17" t="n">
+        <f aca="false">D30/B30</f>
+        <v>6.9</v>
+      </c>
+      <c r="F30" s="18" t="n">
+        <f aca="false">E30/$E$23</f>
+        <v>0.389830508474576</v>
+      </c>
+      <c r="G30" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="H30" s="20" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="1" t="n">
+        <f aca="false">A30+1</f>
+        <v>30</v>
+      </c>
+      <c r="B31" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="C31" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="D31" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="E31" s="17" t="n">
+        <f aca="false">D31/B31</f>
+        <v>6.3</v>
+      </c>
+      <c r="F31" s="18" t="n">
+        <f aca="false">E31/$E$23</f>
+        <v>0.35593220338983</v>
+      </c>
+      <c r="G31" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="H31" s="20" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="1" t="n">
+        <f aca="false">A31+1</f>
+        <v>31</v>
+      </c>
+      <c r="B32" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="C32" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="D32" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="E32" s="17" t="n">
+        <f aca="false">D32/B32</f>
+        <v>2.7</v>
+      </c>
+      <c r="F32" s="18" t="n">
+        <f aca="false">E32/$E$23</f>
+        <v>0.152542372881356</v>
+      </c>
+      <c r="G32" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="H32" s="20" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="1" t="n">
+        <f aca="false">A32+1</f>
+        <v>32</v>
+      </c>
+      <c r="B33" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="C33" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="D33" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="E33" s="17" t="n">
+        <f aca="false">D33/B33</f>
+        <v>2.7</v>
+      </c>
+      <c r="F33" s="18" t="n">
+        <f aca="false">E33/$E$23</f>
+        <v>0.152542372881356</v>
+      </c>
+      <c r="G33" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="H33" s="20" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="1" t="n">
+        <f aca="false">A33+1</f>
+        <v>33</v>
+      </c>
+      <c r="B34" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="C34" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="D34" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="E34" s="17" t="n">
+        <f aca="false">D34/B34</f>
+        <v>3.6</v>
+      </c>
+      <c r="F34" s="18" t="n">
+        <f aca="false">E34/$E$23</f>
+        <v>0.203389830508475</v>
+      </c>
+      <c r="G34" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I34" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="J34" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="K34" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="L34" s="17" t="n">
+        <f aca="false">K34/I34</f>
+        <v>2.7</v>
+      </c>
+      <c r="M34" s="18" t="n">
+        <f aca="false">L34/$E$23</f>
+        <v>0.152542372881356</v>
+      </c>
+      <c r="N34" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="O34" s="20" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="1" t="n">
+        <f aca="false">A34+1</f>
+        <v>34</v>
+      </c>
+      <c r="B35" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="C35" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="D35" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="E35" s="17" t="n">
+        <f aca="false">D35/B35</f>
+        <v>3.5</v>
+      </c>
+      <c r="F35" s="18" t="n">
+        <f aca="false">E35/$E$23</f>
+        <v>0.19774011299435</v>
+      </c>
+      <c r="G35" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="21" t="n">
+        <f aca="false">A35+1</f>
+        <v>35</v>
+      </c>
+      <c r="B36" s="21" t="n">
+        <v>10</v>
+      </c>
+      <c r="C36" s="21" t="n">
+        <v>5</v>
+      </c>
+      <c r="D36" s="21" t="n">
+        <v>15</v>
+      </c>
+      <c r="E36" s="22" t="n">
+        <f aca="false">D36/B36</f>
+        <v>1.5</v>
+      </c>
+      <c r="F36" s="23" t="n">
+        <f aca="false">E36/$E$23</f>
+        <v>0.0847457627118644</v>
+      </c>
+      <c r="G36" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="H36" s="21" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="1" t="n">
+        <f aca="false">A36+1</f>
+        <v>36</v>
+      </c>
+      <c r="B37" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="C37" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="D37" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="E37" s="17" t="n">
+        <f aca="false">D37/B37</f>
+        <v>1.6</v>
+      </c>
+      <c r="F37" s="18" t="n">
+        <f aca="false">E37/$E$23</f>
+        <v>0.0903954802259887</v>
+      </c>
+      <c r="G37" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="H37" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="1" t="n">
+        <f aca="false">A37+1</f>
+        <v>37</v>
+      </c>
+      <c r="B38" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="C38" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="D38" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="E38" s="17" t="n">
+        <f aca="false">D38/B38</f>
+        <v>1.5</v>
+      </c>
+      <c r="F38" s="18" t="n">
+        <f aca="false">E38/$E$23</f>
+        <v>0.0847457627118644</v>
+      </c>
+      <c r="G38" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="H38" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="1" t="n">
+        <f aca="false">A38+1</f>
+        <v>38</v>
+      </c>
+      <c r="B39" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="C39" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="D39" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="E39" s="17" t="n">
+        <f aca="false">D39/B39</f>
+        <v>1.4</v>
+      </c>
+      <c r="F39" s="18" t="n">
+        <f aca="false">E39/$E$23</f>
+        <v>0.0790960451977401</v>
+      </c>
+      <c r="G39" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="H39" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="1" t="n">
+        <f aca="false">A39+1</f>
+        <v>39</v>
+      </c>
+      <c r="B40" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="C40" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="D40" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="E40" s="17" t="n">
+        <f aca="false">D40/B40</f>
+        <v>1.5</v>
+      </c>
+      <c r="F40" s="18" t="n">
+        <f aca="false">E40/$E$23</f>
+        <v>0.0847457627118644</v>
+      </c>
+      <c r="G40" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="H40" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="1" t="n">
+        <f aca="false">A40+1</f>
+        <v>40</v>
+      </c>
+      <c r="B41" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="C41" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="D41" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="E41" s="17" t="n">
+        <f aca="false">D41/B41</f>
+        <v>1.5</v>
+      </c>
+      <c r="F41" s="18" t="n">
+        <f aca="false">E41/$E$23</f>
+        <v>0.0847457627118644</v>
+      </c>
+      <c r="G41" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="H41" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B42" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="C42" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="D42" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="E42" s="17" t="n">
+        <f aca="false">D42/B42</f>
+        <v>3.1</v>
+      </c>
+      <c r="F42" s="18" t="n">
+        <f aca="false">E42/$E$23</f>
+        <v>0.175141242937853</v>
+      </c>
+      <c r="G42" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="H42" s="3" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
